--- a/areas.xlsx
+++ b/areas.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -310,11 +315,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -827,8 +832,8 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -869,8 +874,8 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -889,49 +894,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="43.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="43.83203125" customWidth="1"/>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="32.33203125" customWidth="1"/>
+    <col min="17" max="17" width="32.5" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="13.1640625" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.5" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:249" s="11" customFormat="1" ht="52.5">
+    <row r="1" spans="1:249" s="11" customFormat="1" ht="48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4621,10 +4626,15 @@
     <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>